--- a/docs/Estimates.CSV (Challenges).xlsx
+++ b/docs/Estimates.CSV (Challenges).xlsx
@@ -505,8 +505,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -515,7 +515,7 @@
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>46</v>
@@ -682,13 +682,13 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>47</v>
@@ -790,13 +790,13 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
@@ -824,7 +824,7 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -841,13 +841,13 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="s">
         <v>56</v>
@@ -878,10 +878,10 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -921,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>60</v>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>61</v>
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F25" t="s">
         <v>62</v>
@@ -987,15 +987,15 @@
       </c>
       <c r="C28">
         <f>SUM(C2:C26)</f>
-        <v>33.5</v>
+        <v>27.5</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:E28" si="0">SUM(D2:D26)</f>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
